--- a/aia_google_reviews_sentiment.xlsx
+++ b/aia_google_reviews_sentiment.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Surface/Documents/GitHub/NLP_Assignment_3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33653A6-5699-4847-AC4F-80C19BAF549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="aia_google_reviews_sentiment_to" sheetId="1" r:id="rId4"/>
+    <sheet name="aia_google_reviews_sentiment_to" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Updated with Product Reviews (data as at 12 Sep 2024)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Updated with Product Reviews (data as at 12 Sep 2024)
 	-Louis (LL)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -467,25 +484,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy hh:mm"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
@@ -495,48 +514,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -726,26 +748,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col hidden="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" min="10" max="10" width="20.38"/>
-    <col customWidth="1" min="11" max="11" width="19.25"/>
-    <col customWidth="1" min="12" max="12" width="23.38"/>
+    <col min="3" max="3" width="82.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -800,40 +833,40 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>45390.02291666667</v>
+        <v>45390.022916666669</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -844,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -853,31 +886,31 @@
         <v>17</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -897,31 +930,31 @@
         <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -932,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -941,31 +974,31 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>45598.572916666664</v>
@@ -985,31 +1018,31 @@
         <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -1029,31 +1062,31 @@
         <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1073,31 +1106,31 @@
         <v>30</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,40 +1141,40 @@
         <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>45295.95277777778</v>
+        <v>45295.952777777777</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1185,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -1161,31 +1194,31 @@
         <v>34</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1229,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -1205,31 +1238,31 @@
         <v>17</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1273,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
@@ -1249,31 +1282,31 @@
         <v>17</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1284,40 +1317,40 @@
         <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>44623.00069444445</v>
+        <v>44623.000694444447</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1328,40 +1361,40 @@
         <v>40</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>45266.05763888889</v>
+        <v>45266.057638888888</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
@@ -1381,31 +1414,31 @@
         <v>34</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1449,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -1425,31 +1458,31 @@
         <v>30</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1460,40 +1493,40 @@
         <v>45</v>
       </c>
       <c r="D17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>43287.59444444445</v>
+        <v>43287.594444444447</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1537,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>47</v>
@@ -1513,31 +1546,31 @@
         <v>34</v>
       </c>
       <c r="G18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1581,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -1557,31 +1590,31 @@
         <v>50</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>43984.225694444445</v>
@@ -1601,31 +1634,31 @@
         <v>34</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1636,40 +1669,40 @@
         <v>52</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>43627.00069444445</v>
+        <v>43627.000694444447</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1713,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
@@ -1689,31 +1722,31 @@
         <v>17</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1757,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>56</v>
@@ -1733,31 +1766,31 @@
         <v>17</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1801,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>43779.1875</v>
@@ -1777,31 +1810,31 @@
         <v>17</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1845,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -1821,31 +1854,31 @@
         <v>34</v>
       </c>
       <c r="G25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1856,40 +1889,40 @@
         <v>60</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>44508.96666666667</v>
+        <v>44508.966666666667</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1900,7 +1933,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
         <v>44688.388194444444</v>
@@ -1909,31 +1942,31 @@
         <v>34</v>
       </c>
       <c r="G27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +1977,7 @@
         <v>62</v>
       </c>
       <c r="D28" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>63</v>
@@ -1953,31 +1986,31 @@
         <v>50</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <v>42740.26458333333</v>
@@ -1997,31 +2030,31 @@
         <v>17</v>
       </c>
       <c r="G29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2032,7 +2065,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2041,31 +2074,31 @@
         <v>17</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2109,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
         <v>43657.055555555555</v>
@@ -2085,31 +2118,31 @@
         <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2153,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>69</v>
@@ -2129,31 +2162,31 @@
         <v>17</v>
       </c>
       <c r="G32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2164,40 +2197,40 @@
         <v>70</v>
       </c>
       <c r="D33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2">
-        <v>44386.48611111111</v>
+        <v>44386.486111111109</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -2208,7 +2241,7 @@
         <v>71</v>
       </c>
       <c r="D34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>72</v>
@@ -2217,31 +2250,31 @@
         <v>30</v>
       </c>
       <c r="G34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -2252,40 +2285,40 @@
         <v>73</v>
       </c>
       <c r="D35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>45207.13125</v>
+        <v>45207.131249999999</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2296,7 +2329,7 @@
         <v>74</v>
       </c>
       <c r="D36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>75</v>
@@ -2305,31 +2338,31 @@
         <v>50</v>
       </c>
       <c r="G36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -2340,40 +2373,40 @@
         <v>76</v>
       </c>
       <c r="D37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>43952.45277777778</v>
+        <v>43952.452777777777</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2417,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>78</v>
@@ -2393,31 +2426,31 @@
         <v>17</v>
       </c>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2428,7 +2461,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>80</v>
@@ -2437,31 +2470,31 @@
         <v>34</v>
       </c>
       <c r="G39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2505,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>82</v>
@@ -2481,31 +2514,31 @@
         <v>17</v>
       </c>
       <c r="G40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2516,7 +2549,7 @@
         <v>83</v>
       </c>
       <c r="D41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>84</v>
@@ -2525,31 +2558,31 @@
         <v>50</v>
       </c>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -2560,37 +2593,37 @@
         <v>87</v>
       </c>
       <c r="E42" s="3">
-        <v>45482.0</v>
+        <v>45482</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -2607,31 +2640,31 @@
         <v>17</v>
       </c>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -2648,31 +2681,31 @@
         <v>17</v>
       </c>
       <c r="G44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -2689,31 +2722,31 @@
         <v>17</v>
       </c>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2730,31 +2763,31 @@
         <v>30</v>
       </c>
       <c r="G46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -2771,31 +2804,31 @@
         <v>34</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -2812,31 +2845,31 @@
         <v>17</v>
       </c>
       <c r="G48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2853,31 +2886,31 @@
         <v>17</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2894,31 +2927,31 @@
         <v>34</v>
       </c>
       <c r="G50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -2935,31 +2968,31 @@
         <v>17</v>
       </c>
       <c r="G51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:14" ht="13">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -2976,31 +3009,31 @@
         <v>17</v>
       </c>
       <c r="G52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M52" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:14" ht="13">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -3017,31 +3050,31 @@
         <v>17</v>
       </c>
       <c r="G53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:14" ht="13">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -3058,31 +3091,31 @@
         <v>17</v>
       </c>
       <c r="G54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:14" ht="13">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -3099,31 +3132,31 @@
         <v>17</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14" ht="13">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -3140,31 +3173,31 @@
         <v>17</v>
       </c>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:14" ht="13">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -3181,31 +3214,31 @@
         <v>17</v>
       </c>
       <c r="G57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:14" ht="13">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -3222,31 +3255,31 @@
         <v>17</v>
       </c>
       <c r="G58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:14" ht="13">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -3263,31 +3296,31 @@
         <v>17</v>
       </c>
       <c r="G59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:14" ht="13">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -3304,31 +3337,31 @@
         <v>17</v>
       </c>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:14" ht="13">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
@@ -3345,31 +3378,31 @@
         <v>17</v>
       </c>
       <c r="G61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:14" ht="13">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -3386,31 +3419,31 @@
         <v>34</v>
       </c>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:14" ht="13">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
@@ -3427,31 +3460,31 @@
         <v>17</v>
       </c>
       <c r="G63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:14" ht="13">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -3468,31 +3501,31 @@
         <v>17</v>
       </c>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:14" ht="13">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3509,31 +3542,31 @@
         <v>17</v>
       </c>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:14" ht="13">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -3550,31 +3583,31 @@
         <v>17</v>
       </c>
       <c r="G66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:14" ht="13">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -3591,31 +3624,31 @@
         <v>17</v>
       </c>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:14" ht="13">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -3632,31 +3665,31 @@
         <v>30</v>
       </c>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:14" ht="13">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -3673,31 +3706,31 @@
         <v>17</v>
       </c>
       <c r="G69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:14" ht="13">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -3714,31 +3747,31 @@
         <v>17</v>
       </c>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:14" ht="13">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -3755,31 +3788,31 @@
         <v>17</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M71" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:14" ht="13">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -3796,31 +3829,31 @@
         <v>17</v>
       </c>
       <c r="G72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M72" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:14" ht="13">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -3837,31 +3870,31 @@
         <v>17</v>
       </c>
       <c r="G73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:14" ht="13">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
@@ -3878,31 +3911,31 @@
         <v>17</v>
       </c>
       <c r="G74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:14" ht="13">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -3919,31 +3952,31 @@
         <v>17</v>
       </c>
       <c r="G75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M75" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:14" ht="13">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -3960,31 +3993,31 @@
         <v>17</v>
       </c>
       <c r="G76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M76" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:14" ht="13">
       <c r="A77" s="1" t="s">
         <v>14</v>
       </c>
@@ -4001,31 +4034,31 @@
         <v>17</v>
       </c>
       <c r="G77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M77" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:14" ht="13">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -4042,31 +4075,31 @@
         <v>17</v>
       </c>
       <c r="G78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M78" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:14" ht="13">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -4083,31 +4116,31 @@
         <v>17</v>
       </c>
       <c r="G79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:14" ht="13">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -4124,31 +4157,31 @@
         <v>17</v>
       </c>
       <c r="G80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M80" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:14" ht="13">
       <c r="A81" s="1" t="s">
         <v>14</v>
       </c>
@@ -4165,32 +4198,32 @@
         <v>17</v>
       </c>
       <c r="G81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I81" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M81" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>